--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429109.6936597604</v>
+        <v>435819.8572439419</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1778544.252448889</v>
+        <v>1778544.252448888</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5411339.832569093</v>
+        <v>5411339.832569092</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>132.942981128601</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9343564130348</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="D3" t="n">
-        <v>132.9429811286011</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
     </row>
     <row r="4">
@@ -835,34 +835,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>132.942981128601</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="X6" t="n">
-        <v>146.5338203784253</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>120.9936917739885</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="H8" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>120.9936917739884</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>132.9429811286011</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>32.78514697595778</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Y9" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>128.8458810757489</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>35.85851910156346</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>150.9343564130348</v>
+        <v>45.25064124031133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8.900712693939999</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="I13" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>8.900712693940083</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>132.942981128601</v>
+        <v>132.9429811286009</v>
       </c>
       <c r="G14" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="H14" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="I14" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>93.782058744107</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>55.36400285455358</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>150.9343564130348</v>
+        <v>69.40990664858339</v>
       </c>
       <c r="J16" t="n">
-        <v>8.90071269393999</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>128.8458810757489</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>139.8197347771655</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.9429811286011</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.5833208619401</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="X18" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>69.40990664858337</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>8.900712693940083</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>36.85550713744951</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3382516189322</v>
+        <v>231.863583504628</v>
       </c>
       <c r="V20" t="n">
         <v>263.2420339516666</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.6704375009068</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.3142662032223</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.039938324646</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>231.8635835046278</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,22 +2363,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78.41989296530859</v>
       </c>
       <c r="H24" t="n">
-        <v>89.67587033205611</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I24" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,28 +2555,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>73.30958074936443</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>140.2609367376592</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T26" t="n">
         <v>222.6908602868995</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>35.41643372067149</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>65.50289846948225</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.97940549761071</v>
       </c>
       <c r="S29" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V29" t="n">
         <v>263.2420339516666</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>67.4800535700744</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S30" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>78.08574653844312</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>159.8350691069748</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T32" t="n">
-        <v>99.70976307289229</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>24.95172480471517</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="W32" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>133.6333319699921</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>208.6853132605964</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>65.50289846948228</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T35" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>21.07650555046276</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>263.2420339516666</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>38.9616318496242</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>7.684604967058087</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3503,13 +3503,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D38" t="n">
-        <v>231.8635835046278</v>
-      </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>263.2420339516666</v>
+        <v>87.80598074015786</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>125.6384340685011</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>13.46695056626833</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="I41" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>140.0417524496013</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.2420339516666</v>
+        <v>227.7664834517758</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>61.97809761261716</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3837,7 +3837,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I42" t="n">
-        <v>87.69233988828964</v>
+        <v>70.68395332830295</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="G44" t="n">
-        <v>150.9343564130348</v>
+        <v>128.8458810757488</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.942981128601</v>
+        <v>150.9343564130347</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C45" t="n">
-        <v>132.9429811286011</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>150.9343564130348</v>
+        <v>136.432271976997</v>
       </c>
       <c r="T45" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>8.900712693940113</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.900712693939999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.07474851304279</v>
+        <v>164.5336943847951</v>
       </c>
       <c r="C2" t="n">
-        <v>12.07474851304279</v>
+        <v>164.5336943847951</v>
       </c>
       <c r="D2" t="n">
-        <v>12.07474851304279</v>
+        <v>164.5336943847951</v>
       </c>
       <c r="E2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J2" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K2" t="n">
-        <v>115.0897544239651</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L2" t="n">
-        <v>264.5147672728696</v>
+        <v>66.03239451963117</v>
       </c>
       <c r="M2" t="n">
-        <v>413.9397801217741</v>
+        <v>215.4574073685356</v>
       </c>
       <c r="N2" t="n">
-        <v>563.3647929706785</v>
+        <v>364.88242021744</v>
       </c>
       <c r="O2" t="n">
-        <v>563.3647929706785</v>
+        <v>514.077370360088</v>
       </c>
       <c r="P2" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q2" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R2" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S2" t="n">
-        <v>469.4515861282999</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="T2" t="n">
-        <v>316.9926402565475</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="U2" t="n">
-        <v>164.5336943847952</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="V2" t="n">
-        <v>12.07474851304279</v>
+        <v>316.9926402565474</v>
       </c>
       <c r="W2" t="n">
-        <v>12.07474851304279</v>
+        <v>316.9926402565474</v>
       </c>
       <c r="X2" t="n">
-        <v>12.07474851304279</v>
+        <v>316.9926402565474</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.07474851304279</v>
+        <v>164.5336943847951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.8195339086346</v>
+        <v>146.3605880368821</v>
       </c>
       <c r="C3" t="n">
-        <v>146.3605880368823</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J3" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K3" t="n">
-        <v>12.07474851304279</v>
+        <v>137.4323085708802</v>
       </c>
       <c r="L3" t="n">
-        <v>161.4997613619473</v>
+        <v>235.4928414410008</v>
       </c>
       <c r="M3" t="n">
-        <v>161.4997613619473</v>
+        <v>235.4928414410008</v>
       </c>
       <c r="N3" t="n">
-        <v>235.492841441001</v>
+        <v>235.4928414410008</v>
       </c>
       <c r="O3" t="n">
-        <v>384.9178542899055</v>
+        <v>384.9178542899052</v>
       </c>
       <c r="P3" t="n">
-        <v>534.34286713881</v>
+        <v>534.3428671388097</v>
       </c>
       <c r="Q3" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R3" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S3" t="n">
-        <v>451.278479780387</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T3" t="n">
-        <v>451.278479780387</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U3" t="n">
-        <v>451.278479780387</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V3" t="n">
-        <v>451.278479780387</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="W3" t="n">
-        <v>451.278479780387</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="X3" t="n">
-        <v>451.278479780387</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.278479780387</v>
+        <v>146.3605880368821</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="C4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I4" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J4" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K4" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L4" t="n">
-        <v>39.38887352075577</v>
+        <v>39.38887352075576</v>
       </c>
       <c r="M4" t="n">
-        <v>78.57691171297795</v>
+        <v>78.57691171297793</v>
       </c>
       <c r="N4" t="n">
-        <v>122.2677623684143</v>
+        <v>122.2677623684142</v>
       </c>
       <c r="O4" t="n">
         <v>146.6070390033135</v>
@@ -4510,28 +4510,28 @@
         <v>146.6070390033135</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="S4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="T4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="U4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="V4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="X4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="Y4" t="n">
-        <v>146.6070390033135</v>
+        <v>12.07474851304278</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.5336943847952</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="C5" t="n">
-        <v>12.07474851304279</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="D5" t="n">
-        <v>12.07474851304279</v>
+        <v>146.3605880368821</v>
       </c>
       <c r="E5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J5" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K5" t="n">
         <v>115.0897544239651</v>
@@ -4574,43 +4574,43 @@
         <v>264.5147672728696</v>
       </c>
       <c r="M5" t="n">
-        <v>413.9397801217741</v>
+        <v>413.939780121774</v>
       </c>
       <c r="N5" t="n">
-        <v>563.3647929706785</v>
+        <v>514.077370360088</v>
       </c>
       <c r="O5" t="n">
-        <v>563.3647929706785</v>
+        <v>514.077370360088</v>
       </c>
       <c r="P5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V5" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="W5" t="n">
-        <v>469.4515861282999</v>
+        <v>603.737425652139</v>
       </c>
       <c r="X5" t="n">
-        <v>316.9926402565475</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Y5" t="n">
-        <v>164.5336943847952</v>
+        <v>451.2784797803867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.8055739304273</v>
+        <v>146.3605880368821</v>
       </c>
       <c r="C6" t="n">
-        <v>150.8055739304273</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D6" t="n">
-        <v>150.8055739304273</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E6" t="n">
-        <v>150.8055739304273</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F6" t="n">
-        <v>150.8055739304273</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G6" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H6" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I6" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J6" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K6" t="n">
         <v>137.4323085708802</v>
       </c>
       <c r="L6" t="n">
-        <v>137.4323085708802</v>
+        <v>286.8573214197846</v>
       </c>
       <c r="M6" t="n">
-        <v>137.4323085708802</v>
+        <v>436.2823342686891</v>
       </c>
       <c r="N6" t="n">
-        <v>235.492841441001</v>
+        <v>534.3428671388097</v>
       </c>
       <c r="O6" t="n">
-        <v>384.9178542899055</v>
+        <v>534.3428671388097</v>
       </c>
       <c r="P6" t="n">
-        <v>534.34286713881</v>
+        <v>534.3428671388097</v>
       </c>
       <c r="Q6" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R6" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S6" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T6" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U6" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V6" t="n">
-        <v>603.7374256521393</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="W6" t="n">
-        <v>603.7374256521393</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="X6" t="n">
-        <v>455.723465673932</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="Y6" t="n">
-        <v>303.2645198021796</v>
+        <v>298.8195339086344</v>
       </c>
     </row>
     <row r="7">
@@ -4720,22 +4720,22 @@
         <v>146.6070390033135</v>
       </c>
       <c r="I7" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J7" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K7" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L7" t="n">
-        <v>39.38887352075577</v>
+        <v>39.38887352075576</v>
       </c>
       <c r="M7" t="n">
-        <v>78.57691171297795</v>
+        <v>78.57691171297793</v>
       </c>
       <c r="N7" t="n">
-        <v>122.2677623684143</v>
+        <v>122.2677623684142</v>
       </c>
       <c r="O7" t="n">
         <v>146.6070390033135</v>
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>451.278479780387</v>
+        <v>329.0626295036307</v>
       </c>
       <c r="C8" t="n">
-        <v>451.278479780387</v>
+        <v>176.6036836318784</v>
       </c>
       <c r="D8" t="n">
-        <v>451.278479780387</v>
+        <v>176.6036836318784</v>
       </c>
       <c r="E8" t="n">
-        <v>451.278479780387</v>
+        <v>176.6036836318784</v>
       </c>
       <c r="F8" t="n">
-        <v>451.278479780387</v>
+        <v>176.6036836318784</v>
       </c>
       <c r="G8" t="n">
-        <v>329.0626295036309</v>
+        <v>24.14473776012613</v>
       </c>
       <c r="H8" t="n">
-        <v>176.6036836318785</v>
+        <v>24.14473776012613</v>
       </c>
       <c r="I8" t="n">
-        <v>24.14473776012614</v>
+        <v>24.14473776012613</v>
       </c>
       <c r="J8" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K8" t="n">
         <v>115.0897544239651</v>
@@ -4811,43 +4811,43 @@
         <v>264.5147672728696</v>
       </c>
       <c r="M8" t="n">
-        <v>305.1174626605868</v>
+        <v>413.939780121774</v>
       </c>
       <c r="N8" t="n">
-        <v>454.5424755094913</v>
+        <v>454.5424755094909</v>
       </c>
       <c r="O8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="P8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="W8" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="X8" t="n">
-        <v>451.278479780387</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Y8" t="n">
-        <v>451.278479780387</v>
+        <v>481.521575375383</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.8195339086346</v>
+        <v>45.19105858976781</v>
       </c>
       <c r="C9" t="n">
-        <v>146.3605880368823</v>
+        <v>45.19105858976781</v>
       </c>
       <c r="D9" t="n">
-        <v>12.07474851304279</v>
+        <v>45.19105858976781</v>
       </c>
       <c r="E9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K9" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L9" t="n">
-        <v>12.07474851304279</v>
+        <v>161.4997613619472</v>
       </c>
       <c r="M9" t="n">
-        <v>155.4623871054259</v>
+        <v>310.9247742108516</v>
       </c>
       <c r="N9" t="n">
-        <v>304.8873999543304</v>
+        <v>454.3124128032346</v>
       </c>
       <c r="O9" t="n">
-        <v>454.3124128032348</v>
+        <v>454.3124128032346</v>
       </c>
       <c r="P9" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q9" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R9" t="n">
-        <v>603.7374256521393</v>
+        <v>502.5678962050247</v>
       </c>
       <c r="S9" t="n">
-        <v>603.7374256521393</v>
+        <v>502.5678962050247</v>
       </c>
       <c r="T9" t="n">
-        <v>603.7374256521393</v>
+        <v>502.5678962050247</v>
       </c>
       <c r="U9" t="n">
-        <v>603.7374256521393</v>
+        <v>502.5678962050247</v>
       </c>
       <c r="V9" t="n">
-        <v>603.7374256521393</v>
+        <v>350.1089503332724</v>
       </c>
       <c r="W9" t="n">
-        <v>603.7374256521393</v>
+        <v>197.6500044615201</v>
       </c>
       <c r="X9" t="n">
-        <v>603.7374256521393</v>
+        <v>45.19105858976781</v>
       </c>
       <c r="Y9" t="n">
-        <v>451.278479780387</v>
+        <v>45.19105858976781</v>
       </c>
     </row>
     <row r="10">
@@ -4957,22 +4957,22 @@
         <v>146.6070390033135</v>
       </c>
       <c r="I10" t="n">
-        <v>12.07474851304279</v>
+        <v>106.3769506510961</v>
       </c>
       <c r="J10" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L10" t="n">
-        <v>39.38887352075577</v>
+        <v>39.38887352075576</v>
       </c>
       <c r="M10" t="n">
-        <v>78.57691171297795</v>
+        <v>78.57691171297793</v>
       </c>
       <c r="N10" t="n">
-        <v>122.2677623684143</v>
+        <v>122.2677623684142</v>
       </c>
       <c r="O10" t="n">
         <v>146.6070390033135</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="C11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="D11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="E11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="F11" t="n">
-        <v>16.21323341491367</v>
+        <v>316.9926402565474</v>
       </c>
       <c r="G11" t="n">
-        <v>16.21323341491367</v>
+        <v>164.5336943847951</v>
       </c>
       <c r="H11" t="n">
-        <v>16.21323341491367</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I11" t="n">
-        <v>16.21323341491367</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J11" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K11" t="n">
         <v>126.7404667542776</v>
       </c>
       <c r="L11" t="n">
-        <v>202.0564515361777</v>
+        <v>276.165479603182</v>
       </c>
       <c r="M11" t="n">
-        <v>351.4814643850822</v>
+        <v>425.5904924520864</v>
       </c>
       <c r="N11" t="n">
-        <v>500.9064772339867</v>
+        <v>500.9064772339864</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9064772339867</v>
+        <v>500.9064772339864</v>
       </c>
       <c r="P11" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q11" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R11" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S11" t="n">
-        <v>603.7374256521393</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="T11" t="n">
-        <v>603.7374256521393</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="U11" t="n">
-        <v>451.278479780387</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="V11" t="n">
-        <v>298.8195339086346</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="W11" t="n">
-        <v>146.3605880368823</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="X11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.21323341491367</v>
+        <v>469.4515861282997</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.7544207500108</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="C12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="D12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="E12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="F12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="G12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="H12" t="n">
-        <v>48.2954748782584</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="I12" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J12" t="n">
-        <v>15.96556615374154</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2364363368217</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L12" t="n">
-        <v>298.6614491857262</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="M12" t="n">
-        <v>378.6623479236872</v>
+        <v>155.4623871054257</v>
       </c>
       <c r="N12" t="n">
-        <v>378.6623479236872</v>
+        <v>304.8873999543301</v>
       </c>
       <c r="O12" t="n">
-        <v>378.6623479236872</v>
+        <v>454.3124128032346</v>
       </c>
       <c r="P12" t="n">
-        <v>528.0873607725916</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q12" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R12" t="n">
-        <v>505.6723124935155</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S12" t="n">
-        <v>353.2133666217632</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T12" t="n">
-        <v>200.7544207500108</v>
+        <v>558.0297072275821</v>
       </c>
       <c r="U12" t="n">
-        <v>200.7544207500108</v>
+        <v>405.5707613558299</v>
       </c>
       <c r="V12" t="n">
-        <v>200.7544207500108</v>
+        <v>253.1118154840775</v>
       </c>
       <c r="W12" t="n">
-        <v>200.7544207500108</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="X12" t="n">
-        <v>200.7544207500108</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.7544207500108</v>
+        <v>100.6528696123252</v>
       </c>
     </row>
     <row r="13">
@@ -5191,22 +5191,22 @@
         <v>173.5243132675628</v>
       </c>
       <c r="H13" t="n">
-        <v>164.5336943847952</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="I13" t="n">
-        <v>12.07474851304279</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="J13" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K13" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L13" t="n">
         <v>45.4970251905124</v>
       </c>
       <c r="M13" t="n">
-        <v>91.12525289243337</v>
+        <v>91.12525289243335</v>
       </c>
       <c r="N13" t="n">
         <v>141.1031597455591</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="C14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="D14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="E14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="F14" t="n">
-        <v>469.4515861282999</v>
+        <v>469.4515861282997</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9926402565475</v>
+        <v>316.9926402565474</v>
       </c>
       <c r="H14" t="n">
-        <v>164.5336943847952</v>
+        <v>164.5336943847951</v>
       </c>
       <c r="I14" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J14" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K14" t="n">
         <v>126.7404667542776</v>
       </c>
       <c r="L14" t="n">
-        <v>276.1654796031821</v>
+        <v>276.165479603182</v>
       </c>
       <c r="M14" t="n">
-        <v>425.5904924520866</v>
+        <v>351.4814643850819</v>
       </c>
       <c r="N14" t="n">
-        <v>575.0155053009911</v>
+        <v>500.9064772339864</v>
       </c>
       <c r="O14" t="n">
-        <v>603.7374256521393</v>
+        <v>500.9064772339864</v>
       </c>
       <c r="P14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="W14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="X14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Y14" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="C15" t="n">
-        <v>449.7490772868957</v>
+        <v>509.0080733853642</v>
       </c>
       <c r="D15" t="n">
-        <v>449.7490772868957</v>
+        <v>360.073663724113</v>
       </c>
       <c r="E15" t="n">
-        <v>297.2901314151433</v>
+        <v>360.073663724113</v>
       </c>
       <c r="F15" t="n">
-        <v>150.7555734420283</v>
+        <v>213.539105750998</v>
       </c>
       <c r="G15" t="n">
-        <v>12.07474851304279</v>
+        <v>213.539105750998</v>
       </c>
       <c r="H15" t="n">
-        <v>12.07474851304279</v>
+        <v>100.6528696123252</v>
       </c>
       <c r="I15" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J15" t="n">
         <v>15.96556615374154</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2364363368217</v>
+        <v>79.81232222587806</v>
       </c>
       <c r="L15" t="n">
-        <v>229.2373350747827</v>
+        <v>229.2373350747825</v>
       </c>
       <c r="M15" t="n">
-        <v>229.2373350747827</v>
+        <v>229.2373350747825</v>
       </c>
       <c r="N15" t="n">
-        <v>229.2373350747827</v>
+        <v>229.2373350747825</v>
       </c>
       <c r="O15" t="n">
-        <v>378.6623479236872</v>
+        <v>378.6623479236869</v>
       </c>
       <c r="P15" t="n">
-        <v>528.0873607725916</v>
+        <v>528.0873607725913</v>
       </c>
       <c r="Q15" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R15" t="n">
-        <v>505.6723124935155</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="V15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="W15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="X15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Y15" t="n">
-        <v>449.7490772868957</v>
+        <v>603.737425652139</v>
       </c>
     </row>
     <row r="16">
@@ -5431,19 +5431,19 @@
         <v>173.5243132675628</v>
       </c>
       <c r="I16" t="n">
-        <v>21.06536739581045</v>
+        <v>103.4132964508119</v>
       </c>
       <c r="J16" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K16" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L16" t="n">
         <v>45.4970251905124</v>
       </c>
       <c r="M16" t="n">
-        <v>91.12525289243337</v>
+        <v>91.12525289243335</v>
       </c>
       <c r="N16" t="n">
         <v>141.1031597455591</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="C17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F17" t="n">
-        <v>451.278479780387</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G17" t="n">
-        <v>298.8195339086346</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H17" t="n">
-        <v>146.3605880368823</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I17" t="n">
-        <v>16.21323341491367</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J17" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K17" t="n">
-        <v>52.63143868727326</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L17" t="n">
-        <v>52.63143868727326</v>
+        <v>52.63143868727315</v>
       </c>
       <c r="M17" t="n">
-        <v>202.0564515361777</v>
+        <v>202.0564515361775</v>
       </c>
       <c r="N17" t="n">
-        <v>351.4814643850822</v>
+        <v>351.4814643850819</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9064772339867</v>
+        <v>500.9064772339864</v>
       </c>
       <c r="P17" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="Q17" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R17" t="n">
-        <v>603.7374256521393</v>
+        <v>458.2246955870176</v>
       </c>
       <c r="S17" t="n">
-        <v>603.7374256521393</v>
+        <v>305.7657497152653</v>
       </c>
       <c r="T17" t="n">
-        <v>603.7374256521393</v>
+        <v>153.306803843513</v>
       </c>
       <c r="U17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="V17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="W17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="X17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="Y17" t="n">
-        <v>603.7374256521393</v>
+        <v>12.07474851304278</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>146.3605880368823</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="C18" t="n">
-        <v>12.07474851304279</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="D18" t="n">
-        <v>12.07474851304279</v>
+        <v>150.7555734420283</v>
       </c>
       <c r="E18" t="n">
-        <v>12.07474851304279</v>
+        <v>150.7555734420283</v>
       </c>
       <c r="F18" t="n">
-        <v>12.07474851304279</v>
+        <v>150.7555734420283</v>
       </c>
       <c r="G18" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H18" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I18" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J18" t="n">
         <v>15.96556615374154</v>
@@ -5598,46 +5598,46 @@
         <v>15.96556615374154</v>
       </c>
       <c r="L18" t="n">
-        <v>165.390579002646</v>
+        <v>165.3905790026459</v>
       </c>
       <c r="M18" t="n">
-        <v>229.2373350747827</v>
+        <v>314.8155918515504</v>
       </c>
       <c r="N18" t="n">
-        <v>229.2373350747827</v>
+        <v>378.6623479236869</v>
       </c>
       <c r="O18" t="n">
-        <v>378.6623479236872</v>
+        <v>378.6623479236869</v>
       </c>
       <c r="P18" t="n">
-        <v>528.0873607725916</v>
+        <v>528.0873607725913</v>
       </c>
       <c r="Q18" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="R18" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="S18" t="n">
-        <v>603.7374256521393</v>
+        <v>603.737425652139</v>
       </c>
       <c r="T18" t="n">
-        <v>451.278479780387</v>
+        <v>603.737425652139</v>
       </c>
       <c r="U18" t="n">
-        <v>451.278479780387</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="V18" t="n">
-        <v>451.278479780387</v>
+        <v>451.2784797803867</v>
       </c>
       <c r="W18" t="n">
-        <v>298.8195339086346</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="X18" t="n">
-        <v>146.3605880368823</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="Y18" t="n">
-        <v>146.3605880368823</v>
+        <v>298.8195339086344</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="C19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J19" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K19" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L19" t="n">
         <v>45.4970251905124</v>
       </c>
       <c r="M19" t="n">
-        <v>91.12525289243337</v>
+        <v>91.12525289243335</v>
       </c>
       <c r="N19" t="n">
         <v>141.1031597455591</v>
@@ -5695,28 +5695,28 @@
         <v>173.5243132675628</v>
       </c>
       <c r="R19" t="n">
-        <v>173.5243132675628</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="S19" t="n">
-        <v>173.5243132675628</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="T19" t="n">
-        <v>103.4132964508119</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="U19" t="n">
-        <v>103.4132964508119</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="V19" t="n">
-        <v>103.4132964508119</v>
+        <v>21.06536739581054</v>
       </c>
       <c r="W19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="X19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.4132964508119</v>
+        <v>12.07474851304278</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.28714770345607</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C20" t="n">
-        <v>58.28714770345607</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D20" t="n">
-        <v>58.28714770345607</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E20" t="n">
-        <v>58.28714770345607</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F20" t="n">
         <v>21.05936271613333</v>
@@ -5753,16 +5753,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K20" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L20" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M20" t="n">
         <v>563.3128681098023</v>
       </c>
       <c r="N20" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O20" t="n">
         <v>950.1371873885138</v>
@@ -5777,25 +5777,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S20" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T20" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U20" t="n">
-        <v>590.0892364947017</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="V20" t="n">
-        <v>324.1881920990789</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="W20" t="n">
-        <v>58.28714770345607</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="X20" t="n">
-        <v>58.28714770345607</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.28714770345607</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>901.7858757047403</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C21" t="n">
-        <v>727.3328464236133</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D21" t="n">
-        <v>578.3984367623621</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E21" t="n">
-        <v>419.1609817569066</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F21" t="n">
-        <v>272.6264237837916</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G21" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H21" t="n">
         <v>21.05936271613333</v>
@@ -5832,19 +5832,19 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K21" t="n">
-        <v>158.2210505399122</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L21" t="n">
-        <v>158.2210505399122</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9440834239259</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N21" t="n">
-        <v>600.5536970360758</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O21" t="n">
-        <v>860.9667611285679</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P21" t="n">
         <v>1052.968135806666</v>
@@ -5856,25 +5856,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S21" t="n">
-        <v>901.7858757047403</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T21" t="n">
-        <v>901.7858757047403</v>
+        <v>692.283299911204</v>
       </c>
       <c r="U21" t="n">
-        <v>901.7858757047403</v>
+        <v>464.0629711534089</v>
       </c>
       <c r="V21" t="n">
-        <v>901.7858757047403</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="W21" t="n">
-        <v>901.7858757047403</v>
+        <v>228.9108629216662</v>
       </c>
       <c r="X21" t="n">
-        <v>901.7858757047403</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.7858757047403</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>182.5089274706534</v>
       </c>
       <c r="S22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V22" t="n">
         <v>21.05936271613333</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C23" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="D23" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="E23" t="n">
-        <v>21.05936271613333</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="F23" t="n">
-        <v>21.05936271613333</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="G23" t="n">
-        <v>21.05936271613333</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="H23" t="n">
         <v>21.05936271613333</v>
@@ -5990,16 +5990,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K23" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L23" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N23" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O23" t="n">
         <v>950.1371873885138</v>
@@ -6011,28 +6011,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R23" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S23" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T23" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U23" t="n">
-        <v>444.5765064295804</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V23" t="n">
-        <v>444.5765064295804</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W23" t="n">
-        <v>178.6754620339576</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X23" t="n">
-        <v>178.6754620339576</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y23" t="n">
-        <v>178.6754620339576</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>200.2191710195129</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="C24" t="n">
-        <v>200.2191710195129</v>
+        <v>213.1576119510774</v>
       </c>
       <c r="D24" t="n">
-        <v>200.2191710195129</v>
+        <v>213.1576119510774</v>
       </c>
       <c r="E24" t="n">
-        <v>200.2191710195129</v>
+        <v>213.1576119510774</v>
       </c>
       <c r="F24" t="n">
-        <v>200.2191710195129</v>
+        <v>213.1576119510774</v>
       </c>
       <c r="G24" t="n">
-        <v>200.2191710195129</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I24" t="n">
         <v>21.05936271613333</v>
@@ -6075,7 +6075,7 @@
         <v>398.8245784347747</v>
       </c>
       <c r="M24" t="n">
-        <v>600.5536970360758</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N24" t="n">
         <v>600.5536970360758</v>
@@ -6099,19 +6099,19 @@
         <v>850.9830782217423</v>
       </c>
       <c r="U24" t="n">
-        <v>850.9830782217423</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="V24" t="n">
-        <v>615.8309699899996</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="W24" t="n">
-        <v>615.8309699899996</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="X24" t="n">
-        <v>407.9794697844668</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="Y24" t="n">
-        <v>200.2191710195129</v>
+        <v>387.6106412322044</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R25" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S25" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T25" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U25" t="n">
         <v>21.05936271613333</v>
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="C26" t="n">
-        <v>162.7370765925568</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="D26" t="n">
-        <v>162.7370765925568</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="E26" t="n">
-        <v>21.05936271613333</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="F26" t="n">
-        <v>21.05936271613333</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G26" t="n">
-        <v>21.05936271613333</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="H26" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I26" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J26" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K26" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L26" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M26" t="n">
         <v>563.3128681098023</v>
       </c>
       <c r="N26" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O26" t="n">
         <v>950.1371873885138</v>
@@ -6248,28 +6248,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R26" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S26" t="n">
-        <v>907.4554057415451</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T26" t="n">
-        <v>682.5151428254849</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="V26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="W26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="X26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
       <c r="Y26" t="n">
-        <v>428.6381209881796</v>
+        <v>365.1489735786416</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="C27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="D27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="E27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="F27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="G27" t="n">
         <v>21.05936271613333</v>
@@ -6309,16 +6309,16 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L27" t="n">
-        <v>398.8245784347747</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M27" t="n">
-        <v>398.8245784347747</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N27" t="n">
-        <v>600.5536970360758</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O27" t="n">
-        <v>860.9667611285679</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P27" t="n">
         <v>1052.968135806666</v>
@@ -6327,28 +6327,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R27" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S27" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T27" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U27" t="n">
-        <v>726.6826938902474</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V27" t="n">
-        <v>690.9085184148216</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W27" t="n">
-        <v>436.6711616866201</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X27" t="n">
-        <v>228.8196614810873</v>
+        <v>355.7271706411893</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
     </row>
     <row r="28">
@@ -6409,10 +6409,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="S28" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T28" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U28" t="n">
         <v>21.05936271613333</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.22390662470127</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="C29" t="n">
-        <v>87.22390662470127</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="D29" t="n">
-        <v>87.22390662470127</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="E29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="F29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="G29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I29" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J29" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K29" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L29" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M29" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N29" t="n">
         <v>785.5101925369328</v>
@@ -6485,28 +6485,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R29" t="n">
-        <v>1052.968135806666</v>
+        <v>1035.817221162615</v>
       </c>
       <c r="S29" t="n">
-        <v>843.966258332007</v>
+        <v>1035.817221162615</v>
       </c>
       <c r="T29" t="n">
-        <v>619.0259954159469</v>
+        <v>810.8769582465551</v>
       </c>
       <c r="U29" t="n">
-        <v>619.0259954159469</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="V29" t="n">
-        <v>353.1249510203241</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="W29" t="n">
-        <v>353.1249510203241</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="X29" t="n">
-        <v>353.1249510203241</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.1249510203241</v>
+        <v>291.0988920136271</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>442.1174635215128</v>
+        <v>433.0249227577941</v>
       </c>
       <c r="C30" t="n">
-        <v>442.1174635215128</v>
+        <v>258.5718934766671</v>
       </c>
       <c r="D30" t="n">
-        <v>293.1830538602616</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E30" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F30" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G30" t="n">
-        <v>133.9455988548061</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H30" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I30" t="n">
         <v>21.05936271613333</v>
@@ -6564,28 +6564,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R30" t="n">
-        <v>984.806465533864</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S30" t="n">
-        <v>812.3178581265049</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T30" t="n">
-        <v>610.3328005415808</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U30" t="n">
-        <v>610.3328005415808</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V30" t="n">
-        <v>610.3328005415808</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="W30" t="n">
-        <v>610.3328005415808</v>
+        <v>640.8764229633269</v>
       </c>
       <c r="X30" t="n">
-        <v>610.3328005415808</v>
+        <v>433.0249227577941</v>
       </c>
       <c r="Y30" t="n">
-        <v>610.3328005415808</v>
+        <v>433.0249227577941</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="C31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="D31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="E31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="F31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="H31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="I31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="J31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="K31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L31" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M31" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N31" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O31" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P31" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q31" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R31" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S31" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T31" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="V31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="W31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="X31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C32" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D32" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E32" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F32" t="n">
         <v>21.05936271613333</v>
@@ -6701,13 +6701,13 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K32" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L32" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M32" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N32" t="n">
         <v>785.5101925369328</v>
@@ -6722,28 +6722,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R32" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S32" t="n">
-        <v>907.4554057415451</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T32" t="n">
-        <v>806.7384733446842</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U32" t="n">
+        <v>843.966258332007</v>
+      </c>
+      <c r="V32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="W32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="X32" t="n">
+        <v>818.7624959030018</v>
+      </c>
+      <c r="Y32" t="n">
         <v>552.8614515073789</v>
-      </c>
-      <c r="V32" t="n">
-        <v>286.9604071117561</v>
-      </c>
-      <c r="W32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="X32" t="n">
-        <v>21.05936271613333</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>678.4944708143832</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="C33" t="n">
-        <v>504.0414415332563</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="D33" t="n">
-        <v>504.0414415332563</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E33" t="n">
-        <v>504.0414415332563</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F33" t="n">
-        <v>357.5068835601412</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G33" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I33" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J33" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K33" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L33" t="n">
-        <v>265.5537082516946</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M33" t="n">
-        <v>265.5537082516946</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N33" t="n">
-        <v>524.9036321565281</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O33" t="n">
-        <v>785.3166962490202</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P33" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q33" t="n">
         <v>1052.968135806666</v>
@@ -6807,22 +6807,22 @@
         <v>880.4795283993074</v>
       </c>
       <c r="T33" t="n">
-        <v>678.4944708143832</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U33" t="n">
-        <v>678.4944708143832</v>
+        <v>669.6862826815332</v>
       </c>
       <c r="V33" t="n">
-        <v>678.4944708143832</v>
+        <v>434.5341744497905</v>
       </c>
       <c r="W33" t="n">
-        <v>678.4944708143832</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="X33" t="n">
-        <v>678.4944708143832</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="Y33" t="n">
-        <v>678.4944708143832</v>
+        <v>180.2968177215888</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L34" t="n">
-        <v>924.9408477296159</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M34" t="n">
-        <v>970.5690754315369</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N34" t="n">
-        <v>1020.546982284663</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O34" t="n">
-        <v>1050.693372907661</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S34" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T34" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U34" t="n">
-        <v>1052.968135806666</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="C35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="D35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="E35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="F35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="G35" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="H35" t="n">
         <v>21.05936271613333</v>
@@ -6962,25 +6962,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S35" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T35" t="n">
-        <v>828.0278728906062</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U35" t="n">
-        <v>574.1508510533009</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="V35" t="n">
-        <v>308.2498066576781</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="W35" t="n">
-        <v>286.9604071117561</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="X35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="Y35" t="n">
-        <v>21.05936271613333</v>
+        <v>353.1249510203241</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>344.4468016585116</v>
+        <v>643.2227794567884</v>
       </c>
       <c r="C36" t="n">
-        <v>169.9937723773846</v>
+        <v>468.7697501756614</v>
       </c>
       <c r="D36" t="n">
-        <v>21.05936271613333</v>
+        <v>319.8353405144102</v>
       </c>
       <c r="E36" t="n">
-        <v>21.05936271613333</v>
+        <v>319.8353405144102</v>
       </c>
       <c r="F36" t="n">
-        <v>21.05936271613333</v>
+        <v>173.3007825412951</v>
       </c>
       <c r="G36" t="n">
-        <v>21.05936271613333</v>
+        <v>173.3007825412951</v>
       </c>
       <c r="H36" t="n">
-        <v>21.05936271613333</v>
+        <v>60.41454640262242</v>
       </c>
       <c r="I36" t="n">
         <v>21.05936271613333</v>
@@ -7020,10 +7020,10 @@
         <v>24.95018035683209</v>
       </c>
       <c r="L36" t="n">
-        <v>265.5537082516946</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="M36" t="n">
-        <v>265.5537082516946</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N36" t="n">
         <v>524.9036321565281</v>
@@ -7038,28 +7038,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R36" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S36" t="n">
-        <v>782.4144152406835</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T36" t="n">
-        <v>580.4293576557594</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U36" t="n">
-        <v>352.2090288979642</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V36" t="n">
-        <v>344.4468016585116</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="W36" t="n">
-        <v>344.4468016585116</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="X36" t="n">
-        <v>344.4468016585116</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="Y36" t="n">
-        <v>344.4468016585116</v>
+        <v>643.2227794567884</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>521.1660470154206</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C38" t="n">
-        <v>255.2650026197978</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="D38" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="E38" t="n">
         <v>21.05936271613333</v>
@@ -7175,16 +7175,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K38" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L38" t="n">
-        <v>330.2546714142361</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N38" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O38" t="n">
         <v>950.1371873885138</v>
@@ -7196,28 +7196,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="X38" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="Y38" t="n">
-        <v>787.0670914110435</v>
+        <v>818.7624959030018</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="C39" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
       <c r="D39" t="n">
         <v>21.05936271613333</v>
@@ -7251,52 +7251,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J39" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K39" t="n">
-        <v>24.95018035683209</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L39" t="n">
-        <v>265.5537082516946</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M39" t="n">
-        <v>526.1633218638444</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N39" t="n">
-        <v>716.9050068346266</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O39" t="n">
-        <v>977.3180709271187</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P39" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q39" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R39" t="n">
-        <v>1039.365155436698</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S39" t="n">
-        <v>866.8765480293393</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T39" t="n">
-        <v>664.8914904444152</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U39" t="n">
-        <v>436.6711616866201</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V39" t="n">
-        <v>436.6711616866201</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W39" t="n">
-        <v>436.6711616866201</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X39" t="n">
-        <v>228.8196614810873</v>
+        <v>355.7271706411893</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762354</v>
       </c>
     </row>
     <row r="40">
@@ -7354,22 +7354,22 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W40" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X40" t="n">
         <v>21.05936271613333</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="C41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="D41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="E41" t="n">
-        <v>500.0980457402644</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F41" t="n">
-        <v>500.0980457402644</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G41" t="n">
-        <v>500.0980457402644</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="H41" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I41" t="n">
         <v>25.19784761800421</v>
@@ -7418,10 +7418,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N41" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O41" t="n">
         <v>950.1371873885138</v>
@@ -7433,28 +7433,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R41" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S41" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T41" t="n">
-        <v>765.9990901358872</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U41" t="n">
-        <v>765.9990901358872</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="W41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="Y41" t="n">
-        <v>500.0980457402644</v>
+        <v>822.9009808048727</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>990.3639968040228</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="C42" t="n">
-        <v>815.9109675228958</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="D42" t="n">
-        <v>666.9765578616446</v>
+        <v>649.7963694172136</v>
       </c>
       <c r="E42" t="n">
-        <v>507.7391028561891</v>
+        <v>490.5589144117581</v>
       </c>
       <c r="F42" t="n">
-        <v>361.204544883074</v>
+        <v>344.0243564386431</v>
       </c>
       <c r="G42" t="n">
-        <v>222.5237199540885</v>
+        <v>205.3435315096575</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6374838154158</v>
+        <v>92.45729537098481</v>
       </c>
       <c r="I42" t="n">
         <v>21.05936271613333</v>
@@ -7491,22 +7491,22 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2210505399122</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L42" t="n">
-        <v>398.8245784347747</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M42" t="n">
-        <v>398.8245784347747</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N42" t="n">
-        <v>524.9036321565281</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O42" t="n">
-        <v>785.3166962490202</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P42" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q42" t="n">
         <v>1052.968135806666</v>
@@ -7527,13 +7527,13 @@
         <v>1052.968135806666</v>
       </c>
       <c r="W42" t="n">
-        <v>1052.968135806666</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X42" t="n">
-        <v>1052.968135806666</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="Y42" t="n">
-        <v>1052.968135806666</v>
+        <v>798.7307790784648</v>
       </c>
     </row>
     <row r="43">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>316.9926402565475</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="C44" t="n">
-        <v>316.9926402565475</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="D44" t="n">
-        <v>316.9926402565475</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9926402565475</v>
+        <v>298.8195339086344</v>
       </c>
       <c r="F44" t="n">
-        <v>164.5336943847952</v>
+        <v>146.3605880368821</v>
       </c>
       <c r="G44" t="n">
-        <v>12.07474851304279</v>
+        <v>16.21323341491366</v>
       </c>
       <c r="H44" t="n">
-        <v>12.07474851304279</v>
+        <v>16.21323341491366</v>
       </c>
       <c r="I44" t="n">
-        <v>12.07474851304279</v>
+        <v>16.21323341491366</v>
       </c>
       <c r="J44" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K44" t="n">
-        <v>126.7404667542776</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L44" t="n">
-        <v>276.1654796031821</v>
+        <v>155.4623871054258</v>
       </c>
       <c r="M44" t="n">
-        <v>425.5904924520866</v>
+        <v>304.8873999543301</v>
       </c>
       <c r="N44" t="n">
-        <v>575.0155053009911</v>
+        <v>454.3124128032345</v>
       </c>
       <c r="O44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="P44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="Q44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="R44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="S44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="T44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="U44" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="V44" t="n">
-        <v>451.278479780387</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="W44" t="n">
-        <v>451.278479780387</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="X44" t="n">
-        <v>451.278479780387</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="Y44" t="n">
-        <v>316.9926402565475</v>
+        <v>451.2784797803866</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>146.3605880368823</v>
+        <v>313.4681040460463</v>
       </c>
       <c r="C45" t="n">
-        <v>12.07474851304279</v>
+        <v>313.4681040460463</v>
       </c>
       <c r="D45" t="n">
-        <v>12.07474851304279</v>
+        <v>164.533694384795</v>
       </c>
       <c r="E45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K45" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L45" t="n">
-        <v>161.4997613619473</v>
+        <v>155.4623871054258</v>
       </c>
       <c r="M45" t="n">
-        <v>310.9247742108518</v>
+        <v>304.8873999543301</v>
       </c>
       <c r="N45" t="n">
-        <v>460.3497870597562</v>
+        <v>454.3124128032345</v>
       </c>
       <c r="O45" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="P45" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="Q45" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="R45" t="n">
-        <v>603.7374256521393</v>
+        <v>603.7374256521389</v>
       </c>
       <c r="S45" t="n">
-        <v>451.278479780387</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="T45" t="n">
-        <v>298.8195339086346</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="U45" t="n">
-        <v>146.3605880368823</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="V45" t="n">
-        <v>146.3605880368823</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="W45" t="n">
-        <v>146.3605880368823</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="X45" t="n">
-        <v>146.3605880368823</v>
+        <v>465.9270499177985</v>
       </c>
       <c r="Y45" t="n">
-        <v>146.3605880368823</v>
+        <v>465.9270499177985</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="C46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="D46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="E46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="F46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="G46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="H46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="I46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="J46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="K46" t="n">
-        <v>12.07474851304279</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="L46" t="n">
         <v>45.4970251905124</v>
       </c>
       <c r="M46" t="n">
-        <v>91.12525289243337</v>
+        <v>91.12525289243335</v>
       </c>
       <c r="N46" t="n">
         <v>141.1031597455591</v>
@@ -7843,13 +7843,13 @@
         <v>173.5243132675628</v>
       </c>
       <c r="W46" t="n">
-        <v>173.5243132675628</v>
+        <v>164.533694384795</v>
       </c>
       <c r="X46" t="n">
-        <v>173.5243132675628</v>
+        <v>12.07474851304278</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.5336943847952</v>
+        <v>12.07474851304278</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>386.7007713830221</v>
+        <v>290.2690877039149</v>
       </c>
       <c r="M2" t="n">
         <v>381.2805896403075</v>
       </c>
       <c r="N2" t="n">
-        <v>380.3474200096258</v>
+        <v>380.3474200096257</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>272.0134328072501</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>289.488736192909</v>
+        <v>237.6054230830263</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>206.0821970116704</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>293.5306008574793</v>
+        <v>293.5306008574792</v>
       </c>
       <c r="P3" t="n">
-        <v>284.9087638273651</v>
+        <v>284.908763827365</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8219,19 +8219,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>386.7007713830221</v>
+        <v>386.700771383022</v>
       </c>
       <c r="M5" t="n">
         <v>381.2805896403075</v>
       </c>
       <c r="N5" t="n">
-        <v>380.3474200096258</v>
+        <v>330.562144645393</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>272.0134328072501</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>289.488736192909</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>293.0683903350531</v>
       </c>
       <c r="N6" t="n">
-        <v>230.3927553864856</v>
+        <v>230.3927553864854</v>
       </c>
       <c r="O6" t="n">
-        <v>293.5306008574793</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>284.9087638273651</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,13 +8456,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>386.7007713830221</v>
+        <v>386.700771383022</v>
       </c>
       <c r="M8" t="n">
-        <v>271.3590568512295</v>
+        <v>381.2805896403075</v>
       </c>
       <c r="N8" t="n">
-        <v>380.3474200096258</v>
+        <v>270.4258872205475</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>289.488736192909</v>
       </c>
       <c r="M9" t="n">
-        <v>286.970032500183</v>
+        <v>293.0683903350531</v>
       </c>
       <c r="N9" t="n">
-        <v>282.2760684963681</v>
+        <v>276.1777106614979</v>
       </c>
       <c r="O9" t="n">
-        <v>293.5306008574793</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>284.9087638273651</v>
+        <v>284.908763827365</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8693,13 +8693,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>297.2434310403821</v>
+        <v>372.1010351484672</v>
       </c>
       <c r="M11" t="n">
         <v>365.035570011356</v>
       </c>
       <c r="N11" t="n">
-        <v>363.8395389794326</v>
+        <v>288.9819348713472</v>
       </c>
       <c r="O11" t="n">
         <v>214.5102874732696</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7408351560269</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M12" t="n">
-        <v>210.4007289819212</v>
+        <v>274.4277389358828</v>
       </c>
       <c r="N12" t="n">
-        <v>118.4674613291454</v>
+        <v>269.4018177421801</v>
       </c>
       <c r="O12" t="n">
-        <v>130.8188201934042</v>
+        <v>281.753176606439</v>
       </c>
       <c r="P12" t="n">
-        <v>275.4563425498421</v>
+        <v>275.456342549842</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,19 +8930,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>372.1010351484673</v>
+        <v>372.1010351484672</v>
       </c>
       <c r="M14" t="n">
-        <v>365.035570011356</v>
+        <v>290.1779659032706</v>
       </c>
       <c r="N14" t="n">
         <v>363.8395389794326</v>
       </c>
       <c r="O14" t="n">
-        <v>243.5223282320052</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P14" t="n">
-        <v>217.9290633046618</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>194.3398692237467</v>
       </c>
       <c r="L15" t="n">
-        <v>208.6154673671951</v>
+        <v>278.7408351560268</v>
       </c>
       <c r="M15" t="n">
         <v>129.5917403577182</v>
@@ -9018,10 +9018,10 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O15" t="n">
-        <v>281.7531766064391</v>
+        <v>281.753176606439</v>
       </c>
       <c r="P15" t="n">
-        <v>275.4563425498421</v>
+        <v>275.456342549842</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>249.2878084630795</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L17" t="n">
-        <v>221.1666787354324</v>
+        <v>262.1330324467763</v>
       </c>
       <c r="M17" t="n">
         <v>365.035570011356</v>
@@ -9176,7 +9176,7 @@
         <v>363.8395389794326</v>
       </c>
       <c r="O17" t="n">
-        <v>365.4446438863044</v>
+        <v>365.4446438863043</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9246,19 +9246,19 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7408351560269</v>
+        <v>278.7408351560268</v>
       </c>
       <c r="M18" t="n">
-        <v>194.0834131578562</v>
+        <v>280.5260967707529</v>
       </c>
       <c r="N18" t="n">
-        <v>118.4674613291454</v>
+        <v>182.9591341292833</v>
       </c>
       <c r="O18" t="n">
-        <v>281.7531766064391</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P18" t="n">
-        <v>275.4563425498421</v>
+        <v>275.456342549842</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L21" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>313.1503594324795</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N21" t="n">
         <v>381.709495280812</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915347</v>
       </c>
       <c r="Q21" t="n">
         <v>133.663080786811</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>333.358526823679</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N24" t="n">
-        <v>118.4674613291454</v>
+        <v>322.2342477951062</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>242.0638463692166</v>
       </c>
       <c r="M27" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N27" t="n">
-        <v>322.2342477951062</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q27" t="n">
         <v>133.663080786811</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K33" t="n">
         <v>129.8481964236088</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N33" t="n">
-        <v>380.4370814350378</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>134.2926466205231</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10668,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M36" t="n">
-        <v>129.5917403577182</v>
+        <v>371.3531930724112</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4370814350378</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K39" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>392.8337743093848</v>
+        <v>337.2886456526676</v>
       </c>
       <c r="N39" t="n">
-        <v>311.1358299865012</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>129.5917403577182</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N42" t="n">
-        <v>245.8200408460681</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915347</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L44" t="n">
-        <v>372.1010351484673</v>
+        <v>366.0026773135971</v>
       </c>
       <c r="M44" t="n">
-        <v>365.035570011356</v>
+        <v>365.0355700113559</v>
       </c>
       <c r="N44" t="n">
-        <v>363.8395389794326</v>
+        <v>363.8395389794325</v>
       </c>
       <c r="O44" t="n">
-        <v>243.5223282320052</v>
+        <v>365.4446438863043</v>
       </c>
       <c r="P44" t="n">
         <v>217.9290633046618</v>
@@ -11379,16 +11379,16 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7408351560269</v>
+        <v>272.6424773211567</v>
       </c>
       <c r="M45" t="n">
-        <v>280.526096770753</v>
+        <v>280.5260967707529</v>
       </c>
       <c r="N45" t="n">
-        <v>269.4018177421802</v>
+        <v>269.4018177421801</v>
       </c>
       <c r="O45" t="n">
-        <v>275.654818771569</v>
+        <v>281.753176606439</v>
       </c>
       <c r="P45" t="n">
         <v>124.5219861368073</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>230.996013659227</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,16 +22595,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>76.07708845764435</v>
+        <v>76.07708845764441</v>
       </c>
       <c r="T2" t="n">
-        <v>72.16149315109652</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>100.4112964948017</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>176.8179020571001</v>
+        <v>176.8179020571002</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>235.3035822430188</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.59882723683251</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>21.77414257528091</v>
+        <v>39.76551785971481</v>
       </c>
       <c r="D3" t="n">
-        <v>14.50208443603768</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>20.74881469080299</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>81.86623073639052</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>54.83862879044273</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>54.74833936426961</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22750,7 +22750,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>214.3385353579727</v>
+        <v>214.3385353579728</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>203.7486852076482</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>248.9873889436608</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>216.297987588812</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>218.7967442654342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>235.3035822430188</v>
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.59882723683251</v>
+        <v>15.59882723683259</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>39.76551785971481</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22875,7 +22875,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>81.86623073639052</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>100.7606267478849</v>
       </c>
       <c r="X6" t="n">
-        <v>59.2391648250522</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.74833936426953</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>231.7994852504458</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>214.3385353579728</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>294.3090457411465</v>
+        <v>264.3683811021003</v>
       </c>
       <c r="H8" t="n">
-        <v>188.5404457027323</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>59.54153315737108</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>218.7967442654342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>265.2442468820652</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.59882723683251</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>21.77414257528091</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>14.50208443603768</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>124.8599334794432</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>81.86623073639052</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>100.7606267478849</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>54.83862879044273</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.74833936426953</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>255.9416893286767</v>
       </c>
       <c r="G11" t="n">
-        <v>415.2102214038314</v>
+        <v>264.2758649907967</v>
       </c>
       <c r="H11" t="n">
-        <v>338.5273214908784</v>
+        <v>187.5929650778436</v>
       </c>
       <c r="I11" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>73.96887757131191</v>
       </c>
       <c r="T11" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>100.4038952058974</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>176.8179020571001</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>198.3066123043782</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>240.8852196027201</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>21.77414257528091</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23355,7 +23355,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I12" t="n">
-        <v>51.83382078672618</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S12" t="n">
-        <v>19.82936492025061</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>49.03085059603998</v>
+        <v>154.7145657687635</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>75.0037690571825</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>81.86623073639052</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>100.7606267478849</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23431,13 +23431,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H13" t="n">
-        <v>152.9574911533737</v>
+        <v>10.92384743427894</v>
       </c>
       <c r="I13" t="n">
-        <v>3.268114089175924</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839145</v>
+        <v>81.52444976445138</v>
       </c>
       <c r="K13" t="n">
         <v>17.44799951871617</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>273.9330646131104</v>
+        <v>273.9330646131105</v>
       </c>
       <c r="G14" t="n">
-        <v>264.2758649907965</v>
+        <v>264.2758649907967</v>
       </c>
       <c r="H14" t="n">
-        <v>187.5929650778435</v>
+        <v>187.5929650778436</v>
       </c>
       <c r="I14" t="n">
-        <v>55.97480577633613</v>
+        <v>55.97480577633621</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>78.92644024420873</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.71072404236611</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S15" t="n">
-        <v>115.3997184787319</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
         <v>199.9652070090748</v>
@@ -23671,10 +23671,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>3.268114089175924</v>
+        <v>84.79256385362737</v>
       </c>
       <c r="J16" t="n">
-        <v>81.52444976445146</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>17.44799951871617</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>255.9416893286766</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>264.2758649907965</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H17" t="n">
-        <v>187.5929650778435</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I17" t="n">
-        <v>78.06328111362205</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>206.9118586999128</v>
+        <v>55.97750228687809</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>71.75650387386477</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3382516189322</v>
+        <v>111.5185168417667</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,10 +23811,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>39.76551785971466</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0.8617447026987008</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23823,7 +23823,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>111.757373777286</v>
@@ -23862,19 +23862,19 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T18" t="n">
-        <v>49.03085059603998</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9381254702172</v>
+        <v>75.0037690571825</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>100.7606267478848</v>
+        <v>100.7606267478849</v>
       </c>
       <c r="X18" t="n">
-        <v>54.83862879044264</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23911,7 +23911,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K19" t="n">
         <v>17.44799951871617</v>
@@ -23935,13 +23935,13 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R19" t="n">
-        <v>175.4274210366964</v>
+        <v>24.49306462366161</v>
       </c>
       <c r="S19" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T19" t="n">
-        <v>158.3583665524392</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U19" t="n">
         <v>286.3167657450791</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>277.6222856426509</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>370.0205386042619</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.2102214038314</v>
@@ -23990,7 +23990,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J20" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T20" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>19.47466811430422</v>
       </c>
       <c r="V20" t="n">
         <v>64.51022451846831</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I21" t="n">
         <v>87.69233988828964</v>
@@ -24096,22 +24096,22 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S21" t="n">
-        <v>21.09328383237863</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.9652070090748</v>
+        <v>13.65094080585254</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24175,7 +24175,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S22" t="n">
-        <v>63.45830508392243</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T22" t="n">
         <v>227.7682732010226</v>
@@ -24184,7 +24184,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685317</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.6939033388346</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G23" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H23" t="n">
-        <v>338.5273214908784</v>
+        <v>106.6637379862505</v>
       </c>
       <c r="I23" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J23" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,22 +24251,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.2940166796957</v>
+        <v>58.87412371438707</v>
       </c>
       <c r="H24" t="n">
-        <v>22.08150344522988</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24409,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R25" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S25" t="n">
         <v>223.2933741908973</v>
@@ -24418,7 +24418,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U25" t="n">
-        <v>126.4816966381042</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>281.3734608713185</v>
       </c>
       <c r="E26" t="n">
-        <v>241.6694333346026</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,13 +24458,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H26" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I26" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J26" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.2940166796957</v>
+        <v>11.6555826111946</v>
       </c>
       <c r="H27" t="n">
         <v>111.757373777286</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S27" t="n">
         <v>170.7637213332854</v>
@@ -24576,10 +24576,10 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V27" t="n">
-        <v>197.3841534287538</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392243</v>
       </c>
       <c r="T28" t="n">
         <v>227.7682732010226</v>
       </c>
       <c r="U28" t="n">
-        <v>126.4816966381042</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>316.4274716027795</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24701,7 +24701,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>144.0576027644702</v>
+        <v>127.0781972668595</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>64.51022451846831</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,10 +24774,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I30" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.60440845696317</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U30" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>173.6092366224765</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G32" t="n">
         <v>415.2102214038314</v>
@@ -24938,7 +24938,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S32" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9810972140072</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V32" t="n">
-        <v>64.51022451846831</v>
+        <v>302.8005336654197</v>
       </c>
       <c r="W32" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>3.660684709703531</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,16 +25047,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9381254702172</v>
+        <v>17.2528122096208</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25126,13 +25126,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U34" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V34" t="n">
-        <v>92.30257421685309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,16 +25166,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.2102214038314</v>
+        <v>349.7073229343491</v>
       </c>
       <c r="H35" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I35" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V35" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>328.1644631669503</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>106.4890667268024</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>87.69233988828964</v>
+        <v>48.73070803866544</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V36" t="n">
-        <v>225.1159821823672</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,13 +25391,13 @@
         <v>119.491807711814</v>
       </c>
       <c r="C38" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>122.8194581160551</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25412,7 +25412,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>206.9118586999128</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.995904704387</v>
+        <v>298.4319579158957</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>21.8066314961377</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.61751146076925</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R40" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S40" t="n">
         <v>223.2933741908973</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>65.87458628206232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G41" t="n">
         <v>415.2102214038314</v>
@@ -25646,7 +25646,7 @@
         <v>75.28528753921177</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S41" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T41" t="n">
-        <v>82.64910783729823</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U41" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V41" t="n">
-        <v>64.51022451846831</v>
+        <v>99.98577501835913</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.5550860372502</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>17.00838655998669</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>231.7994852504459</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>255.9416893286766</v>
+        <v>255.9416893286767</v>
       </c>
       <c r="G44" t="n">
-        <v>264.2758649907965</v>
+        <v>286.3643403280826</v>
       </c>
       <c r="H44" t="n">
         <v>338.5273214908784</v>
@@ -25886,7 +25886,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V44" t="n">
-        <v>176.8179020571001</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>253.2949575274525</v>
+        <v>235.3035822430189</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>15.59882723683262</v>
       </c>
       <c r="C45" t="n">
-        <v>39.76551785971466</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>6.710724042366223</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,13 +25992,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S45" t="n">
-        <v>19.82936492025061</v>
+        <v>34.33144935628849</v>
       </c>
       <c r="T45" t="n">
-        <v>49.03085059603998</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U45" t="n">
-        <v>75.00376905718241</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.89762376890246</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>277.6222856426509</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>74.77529897600243</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.6839406581548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>427456.1479548538</v>
+        <v>427456.1479548539</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>431356.879788082</v>
+        <v>431356.8797880819</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>431356.879788082</v>
+        <v>431356.8797880819</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>509921.8951210084</v>
+        <v>509921.8951210083</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>509921.8951210084</v>
+        <v>509921.8951210083</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>509921.8951210083</v>
+        <v>509921.8951210084</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115868.9265719207</v>
+        <v>115868.9265719206</v>
       </c>
       <c r="C2" t="n">
-        <v>115868.9265719207</v>
+        <v>115868.9265719206</v>
       </c>
       <c r="D2" t="n">
-        <v>115868.9265719207</v>
+        <v>115868.9265719206</v>
       </c>
       <c r="E2" t="n">
-        <v>117402.9510803924</v>
+        <v>117402.9510803923</v>
       </c>
       <c r="F2" t="n">
         <v>117402.9510803923</v>
@@ -26332,7 +26332,7 @@
         <v>138672.1204679982</v>
       </c>
       <c r="I2" t="n">
-        <v>138672.1204679982</v>
+        <v>138672.1204679981</v>
       </c>
       <c r="J2" t="n">
         <v>138672.1204679982</v>
@@ -26347,7 +26347,7 @@
         <v>138672.1204679982</v>
       </c>
       <c r="N2" t="n">
-        <v>138672.1204679981</v>
+        <v>138672.1204679982</v>
       </c>
       <c r="O2" t="n">
         <v>138672.1204679982</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50581.57432420547</v>
+        <v>50581.57432420546</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30301.6221690207</v>
+        <v>30301.62216902073</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39491.06874933208</v>
+        <v>39491.06874933207</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37276.482595742</v>
+        <v>36512.78080732234</v>
       </c>
       <c r="C4" t="n">
-        <v>37276.482595742</v>
+        <v>36512.78080732235</v>
       </c>
       <c r="D4" t="n">
-        <v>37276.482595742</v>
+        <v>36512.78080732234</v>
       </c>
       <c r="E4" t="n">
-        <v>35974.07530310658</v>
+        <v>35237.15873443191</v>
       </c>
       <c r="F4" t="n">
-        <v>35974.07530310658</v>
+        <v>35237.15873443191</v>
       </c>
       <c r="G4" t="n">
-        <v>35974.07530310658</v>
+        <v>35237.15873443192</v>
       </c>
       <c r="H4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="I4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="J4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="K4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="L4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="M4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="N4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="O4" t="n">
-        <v>42979.31141905297</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="P4" t="n">
-        <v>35974.07530310657</v>
+        <v>35237.15873443191</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>42804.40886991251</v>
       </c>
       <c r="E5" t="n">
-        <v>9678.500612484526</v>
+        <v>9678.50061248452</v>
       </c>
       <c r="F5" t="n">
-        <v>9678.500612484526</v>
+        <v>9678.50061248452</v>
       </c>
       <c r="G5" t="n">
-        <v>9678.500612484526</v>
+        <v>9678.50061248452</v>
       </c>
       <c r="H5" t="n">
         <v>16506.80740683333</v>
@@ -26509,7 +26509,7 @@
         <v>16506.80740683333</v>
       </c>
       <c r="P5" t="n">
-        <v>9678.500612484526</v>
+        <v>9678.500612484519</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14793.53921793928</v>
+        <v>-14029.83742951967</v>
       </c>
       <c r="C6" t="n">
-        <v>35788.03510626621</v>
+        <v>36551.73689468578</v>
       </c>
       <c r="D6" t="n">
-        <v>35788.03510626619</v>
+        <v>36551.73689468579</v>
       </c>
       <c r="E6" t="n">
-        <v>53261.35447408667</v>
+        <v>53998.27104276125</v>
       </c>
       <c r="F6" t="n">
-        <v>71750.37516480125</v>
+        <v>72487.29173347585</v>
       </c>
       <c r="G6" t="n">
-        <v>71750.37516480123</v>
+        <v>72487.29173347587</v>
       </c>
       <c r="H6" t="n">
-        <v>48884.37947309119</v>
+        <v>49763.58468415812</v>
       </c>
       <c r="I6" t="n">
-        <v>79186.00164211189</v>
+        <v>80065.20685317882</v>
       </c>
       <c r="J6" t="n">
-        <v>39694.93289277979</v>
+        <v>40574.13810384681</v>
       </c>
       <c r="K6" t="n">
-        <v>79186.00164211186</v>
+        <v>80065.20685317888</v>
       </c>
       <c r="L6" t="n">
-        <v>79186.00164211186</v>
+        <v>80065.2068531789</v>
       </c>
       <c r="M6" t="n">
-        <v>79186.00164211189</v>
+        <v>80065.20685317885</v>
       </c>
       <c r="N6" t="n">
-        <v>79186.00164211183</v>
+        <v>80065.20685317885</v>
       </c>
       <c r="O6" t="n">
-        <v>79186.00164211189</v>
+        <v>80065.20685317888</v>
       </c>
       <c r="P6" t="n">
-        <v>71750.37516480124</v>
+        <v>72487.29173347587</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="H4" t="n">
         <v>263.2420339516666</v>
@@ -26829,7 +26829,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3076775386318</v>
+        <v>112.3076775386319</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>112.3076775386318</v>
+        <v>112.3076775386319</v>
       </c>
     </row>
   </sheetData>
@@ -31750,19 +31750,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I11" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L11" t="n">
         <v>14.5997362345548</v>
@@ -31780,10 +31780,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S11" t="n">
         <v>2.10821088633251</v>
@@ -31792,7 +31792,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J12" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K12" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L12" t="n">
         <v>10.74790103688213</v>
@@ -31850,7 +31850,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N12" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O12" t="n">
         <v>11.77742425104019</v>
@@ -31859,19 +31859,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R12" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T12" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I13" t="n">
         <v>1.248004425047526</v>
@@ -31920,37 +31920,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R13" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T13" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,19 +31987,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I14" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L14" t="n">
         <v>14.5997362345548</v>
@@ -32017,10 +32017,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S14" t="n">
         <v>2.10821088633251</v>
@@ -32029,7 +32029,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J15" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L15" t="n">
         <v>10.74790103688213</v>
@@ -32087,7 +32087,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N15" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O15" t="n">
         <v>11.77742425104019</v>
@@ -32096,19 +32096,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R15" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T15" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I16" t="n">
         <v>1.248004425047526</v>
@@ -32157,37 +32157,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N16" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R16" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T16" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,19 +32224,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I17" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J17" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K17" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L17" t="n">
         <v>14.5997362345548</v>
@@ -32254,10 +32254,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R17" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S17" t="n">
         <v>2.10821088633251</v>
@@ -32266,7 +32266,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J18" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K18" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L18" t="n">
         <v>10.74790103688213</v>
@@ -32324,7 +32324,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N18" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O18" t="n">
         <v>11.77742425104019</v>
@@ -32333,19 +32333,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R18" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T18" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I19" t="n">
         <v>1.248004425047526</v>
@@ -32394,37 +32394,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K19" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L19" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M19" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N19" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O19" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P19" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R19" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T19" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,19 +32461,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I20" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J20" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K20" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L20" t="n">
         <v>14.5997362345548</v>
@@ -32491,10 +32491,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R20" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S20" t="n">
         <v>2.10821088633251</v>
@@ -32503,7 +32503,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J21" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K21" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L21" t="n">
         <v>10.74790103688213</v>
@@ -32561,7 +32561,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N21" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O21" t="n">
         <v>11.77742425104019</v>
@@ -32570,19 +32570,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R21" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T21" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I22" t="n">
         <v>1.248004425047526</v>
@@ -32631,37 +32631,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K22" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L22" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M22" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N22" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O22" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P22" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R22" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T22" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,19 +32698,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I23" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J23" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K23" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L23" t="n">
         <v>14.5997362345548</v>
@@ -32728,10 +32728,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R23" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S23" t="n">
         <v>2.10821088633251</v>
@@ -32740,7 +32740,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U23" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J24" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K24" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L24" t="n">
         <v>10.74790103688213</v>
@@ -32798,7 +32798,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N24" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O24" t="n">
         <v>11.77742425104019</v>
@@ -32807,19 +32807,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R24" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T24" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U24" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I25" t="n">
         <v>1.248004425047526</v>
@@ -32868,37 +32868,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K25" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L25" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M25" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N25" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O25" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P25" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R25" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T25" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,19 +32935,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I26" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J26" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K26" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L26" t="n">
         <v>14.5997362345548</v>
@@ -32965,10 +32965,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R26" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S26" t="n">
         <v>2.10821088633251</v>
@@ -32977,7 +32977,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J27" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K27" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L27" t="n">
         <v>10.74790103688213</v>
@@ -33035,7 +33035,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N27" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O27" t="n">
         <v>11.77742425104019</v>
@@ -33044,19 +33044,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R27" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T27" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U27" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,10 +33093,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I28" t="n">
         <v>1.248004425047526</v>
@@ -33105,37 +33105,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K28" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L28" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M28" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N28" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O28" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P28" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R28" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T28" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,19 +33172,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I29" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J29" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K29" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L29" t="n">
         <v>14.5997362345548</v>
@@ -33202,10 +33202,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R29" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S29" t="n">
         <v>2.10821088633251</v>
@@ -33214,7 +33214,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U29" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,10 +33260,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J30" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K30" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L30" t="n">
         <v>10.74790103688213</v>
@@ -33272,7 +33272,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N30" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O30" t="n">
         <v>11.77742425104019</v>
@@ -33281,19 +33281,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R30" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T30" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U30" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,10 +33330,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I31" t="n">
         <v>1.248004425047526</v>
@@ -33342,37 +33342,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K31" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L31" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M31" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N31" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O31" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P31" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R31" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T31" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U31" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,19 +33409,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I32" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J32" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L32" t="n">
         <v>14.5997362345548</v>
@@ -33439,10 +33439,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R32" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S32" t="n">
         <v>2.10821088633251</v>
@@ -33451,7 +33451,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,10 +33497,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J33" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K33" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L33" t="n">
         <v>10.74790103688213</v>
@@ -33509,7 +33509,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N33" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O33" t="n">
         <v>11.77742425104019</v>
@@ -33518,19 +33518,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R33" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T33" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I34" t="n">
         <v>1.248004425047526</v>
@@ -33579,37 +33579,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K34" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L34" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M34" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N34" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O34" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P34" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R34" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T34" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I35" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J35" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L35" t="n">
         <v>14.5997362345548</v>
@@ -33676,10 +33676,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R35" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S35" t="n">
         <v>2.10821088633251</v>
@@ -33688,7 +33688,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,10 +33734,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J36" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K36" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L36" t="n">
         <v>10.74790103688213</v>
@@ -33746,7 +33746,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N36" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O36" t="n">
         <v>11.77742425104019</v>
@@ -33755,19 +33755,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R36" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T36" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I37" t="n">
         <v>1.248004425047526</v>
@@ -33816,37 +33816,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K37" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L37" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M37" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N37" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O37" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P37" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R37" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T37" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,19 +33883,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I38" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L38" t="n">
         <v>14.5997362345548</v>
@@ -33913,10 +33913,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S38" t="n">
         <v>2.10821088633251</v>
@@ -33925,7 +33925,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L39" t="n">
         <v>10.74790103688213</v>
@@ -33983,7 +33983,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O39" t="n">
         <v>11.77742425104019</v>
@@ -33992,19 +33992,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R39" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T39" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I40" t="n">
         <v>1.248004425047526</v>
@@ -34053,37 +34053,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K40" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R40" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T40" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,19 +34120,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I41" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L41" t="n">
         <v>14.5997362345548</v>
@@ -34150,10 +34150,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S41" t="n">
         <v>2.10821088633251</v>
@@ -34162,7 +34162,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L42" t="n">
         <v>10.74790103688213</v>
@@ -34220,7 +34220,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O42" t="n">
         <v>11.77742425104019</v>
@@ -34229,19 +34229,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R42" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T42" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I43" t="n">
         <v>1.248004425047526</v>
@@ -34290,37 +34290,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K43" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R43" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T43" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,19 +34357,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I44" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L44" t="n">
         <v>14.5997362345548</v>
@@ -34387,10 +34387,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S44" t="n">
         <v>2.10821088633251</v>
@@ -34399,7 +34399,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L45" t="n">
         <v>10.74790103688213</v>
@@ -34457,7 +34457,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O45" t="n">
         <v>11.77742425104019</v>
@@ -34466,19 +34466,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R45" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T45" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,10 +34515,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I46" t="n">
         <v>1.248004425047526</v>
@@ -34527,37 +34527,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K46" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R46" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T46" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150.9343564130348</v>
+        <v>54.50267273392767</v>
       </c>
       <c r="M2" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N2" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>40.78043705198061</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9343564130348</v>
+        <v>99.05104330315214</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>74.74048492833712</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34939,19 +34939,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M5" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N5" t="n">
-        <v>150.9343564130348</v>
+        <v>101.1490810488021</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>40.78043705198061</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N6" t="n">
-        <v>99.05104330315235</v>
+        <v>99.05104330315211</v>
       </c>
       <c r="O6" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35176,13 +35176,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M8" t="n">
-        <v>41.01282362395674</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N8" t="n">
-        <v>150.9343564130348</v>
+        <v>41.01282362395651</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M9" t="n">
-        <v>144.8359985781647</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N9" t="n">
-        <v>150.9343564130348</v>
+        <v>144.8359985781646</v>
       </c>
       <c r="O9" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>115.8239578194291</v>
       </c>
       <c r="L11" t="n">
-        <v>76.07675230494962</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M11" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N11" t="n">
-        <v>150.9343564130348</v>
+        <v>76.07675230494944</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>80.80898862420302</v>
+        <v>144.8359985781646</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P12" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>115.8239578194291</v>
       </c>
       <c r="L14" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M14" t="n">
-        <v>150.9343564130348</v>
+        <v>76.07675230494944</v>
       </c>
       <c r="N14" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O14" t="n">
-        <v>29.0120407587356</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K15" t="n">
-        <v>134.6170405889698</v>
+        <v>64.49167280013791</v>
       </c>
       <c r="L15" t="n">
-        <v>80.80898862420302</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P15" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Q15" t="n">
         <v>76.41420694903812</v>
@@ -35820,7 +35820,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>40.96635371134391</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>40.96635371134381</v>
       </c>
       <c r="M17" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N17" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O17" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P17" t="n">
         <v>103.8696448668208</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="M18" t="n">
-        <v>64.49167280013801</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>64.49167280013786</v>
       </c>
       <c r="O18" t="n">
-        <v>150.9343564130348</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="Q18" t="n">
         <v>76.41420694903812</v>
@@ -36057,7 +36057,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P19" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K21" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M21" t="n">
-        <v>183.5586190747613</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N21" t="n">
         <v>263.2420339516666</v>
@@ -36215,7 +36215,7 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P21" t="n">
-        <v>193.9407825031299</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P22" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>203.7667864659608</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>263.0434990833253</v>
@@ -36531,7 +36531,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P25" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0338665604671</v>
+        <v>114.2573676262245</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N27" t="n">
-        <v>203.7667864659608</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O27" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P27" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P28" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P31" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N33" t="n">
-        <v>261.9696201058925</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O33" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P33" t="n">
-        <v>193.9407825031299</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P34" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.7614527146931</v>
       </c>
       <c r="N36" t="n">
-        <v>261.9696201058925</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O36" t="n">
         <v>263.0434990833253</v>
@@ -37479,7 +37479,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P37" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O38" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P38" t="n">
         <v>103.8696448668208</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L39" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M39" t="n">
-        <v>263.2420339516666</v>
+        <v>207.6969052949494</v>
       </c>
       <c r="N39" t="n">
-        <v>192.6683686573558</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P40" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>196.494535815018</v>
       </c>
       <c r="M41" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945114</v>
       </c>
       <c r="N41" t="n">
         <v>224.4417418455864</v>
       </c>
       <c r="O41" t="n">
-        <v>166.2898937894759</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P41" t="n">
         <v>103.8696448668208</v>
@@ -37859,25 +37859,25 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K42" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N42" t="n">
-        <v>127.3525795169227</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O42" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P42" t="n">
-        <v>193.9407825031299</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P43" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>115.8239578194291</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>150.9343564130348</v>
+        <v>144.8359985781646</v>
       </c>
       <c r="M44" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N44" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O44" t="n">
-        <v>29.0120407587356</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>150.9343564130348</v>
+        <v>144.8359985781646</v>
       </c>
       <c r="M45" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="N45" t="n">
-        <v>150.9343564130348</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="O45" t="n">
-        <v>144.8359985781647</v>
+        <v>150.9343564130347</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P46" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
